--- a/AprajitaRetails/Docs/ProjectStatus.xlsx
+++ b/AprajitaRetails/Docs/ProjectStatus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Area</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>assests</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,13 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -546,99 +555,144 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>

--- a/AprajitaRetails/Docs/ProjectStatus.xlsx
+++ b/AprajitaRetails/Docs/ProjectStatus.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit Kumar\source\repos\AprajitaRetails\AprajitaRetails\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitn\Documents\GitHub\AprajitaRetails_Core3.1\AprajitaRetails\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C714C5-F286-421F-B71C-AC938EFB93AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
   <si>
     <t>Area</t>
   </si>
@@ -138,13 +140,256 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>DB Name</t>
+  </si>
+  <si>
+    <t>StoreLocation</t>
+  </si>
+  <si>
+    <t>DailySales</t>
+  </si>
+  <si>
+    <t>DueList</t>
+  </si>
+  <si>
+    <t>DueRecovery</t>
+  </si>
+  <si>
+    <t>CashInHand</t>
+  </si>
+  <si>
+    <t>CashInBank</t>
+  </si>
+  <si>
+    <t>PettyCashExpenses</t>
+  </si>
+  <si>
+    <t>CashExpenes</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>CurrentSalary</t>
+  </si>
+  <si>
+    <t>Adv Payment</t>
+  </si>
+  <si>
+    <t>Adv Reciept</t>
+  </si>
+  <si>
+    <t>PaySlip</t>
+  </si>
+  <si>
+    <t>Tailoring Booking</t>
+  </si>
+  <si>
+    <t>Tailoring Delivery</t>
+  </si>
+  <si>
+    <t>AprajitaRetailsDB</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Reciepts</t>
+  </si>
+  <si>
+    <t>CreditNote</t>
+  </si>
+  <si>
+    <t>DebitNotes</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>LedgerEntries</t>
+  </si>
+  <si>
+    <t>LedgerMaster</t>
+  </si>
+  <si>
+    <t>LedgerType</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Bank Accounts</t>
+  </si>
+  <si>
+    <t>SecurityInfo</t>
+  </si>
+  <si>
+    <t>Bank Deposit</t>
+  </si>
+  <si>
+    <t>Bank Widthwal</t>
+  </si>
+  <si>
+    <t>Cheques Log</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>DebitNote</t>
+  </si>
+  <si>
+    <t>ArvindPayments</t>
+  </si>
+  <si>
+    <t>ArvindLedger</t>
+  </si>
+  <si>
+    <t>MaualInvoice</t>
+  </si>
+  <si>
+    <t>Manual InvoiceAdjustmen</t>
+  </si>
+  <si>
+    <t>CashPayments</t>
+  </si>
+  <si>
+    <t>TranscationModes</t>
+  </si>
+  <si>
+    <t>Suspenses</t>
+  </si>
+  <si>
+    <t>EndOfDays</t>
+  </si>
+  <si>
+    <t>MonthEnds</t>
+  </si>
+  <si>
+    <t>IncomeExpensesReport</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>TelegramAuthUsers</t>
+  </si>
+  <si>
+    <t>ToDoMessages</t>
+  </si>
+  <si>
+    <t>CashDetail</t>
+  </si>
+  <si>
+    <t>OnlineSale</t>
+  </si>
+  <si>
+    <t>OnlineVendor</t>
+  </si>
+  <si>
+    <t>AttendancesImport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ManualSaleItems   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ManualPaymentDetails   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ManualInvoices   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImportInWard  ImportInWards   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImportPurchase  ImportPurchases   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImportSaleItemWise  ImportSaleItemWises   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ImportSaleRegister  ImportSaleRegisters   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProductItem  ProductItems   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brand  Brands   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category  Categories   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stock  Stocks   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ProductPurchase  ProductPurchases   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supplier  Suppliers   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PurchaseItem  PurchaseItems   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PurchaseTaxType  PurchaseTaxTypes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SalesPerson  SalesPerson   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sales.Models.SaleInvoice  SaleInvoices   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sales.Models.SaleItem  SaleItems   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SaleTaxType  SaleTaxTypes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SalePaymentDetail  SalePaymentDetails   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CardPaymentDetail  CardPaymentDetails   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArvindPayment  ArvindPayments   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RegularInvoice  RegularInvoices   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RegularSaleItem  RegularSaleItems   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RegularPaymentDetail  RegularPaymentDetails   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RegularCardDetail  RegularCardDetails   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ManualCardDetails   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +397,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,14 +426,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,10 +729,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -700,4 +975,699 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652DDEE3-DE94-41D9-9317-4A0AC2FEE136}">
+  <dimension ref="A1:C84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AprajitaRetails/Docs/ProjectStatus.xlsx
+++ b/AprajitaRetails/Docs/ProjectStatus.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitn\Documents\GitHub\AprajitaRetails_Core3.1\AprajitaRetails\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C714C5-F286-421F-B71C-AC938EFB93AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A1B8A1-D257-4602-B60A-74283FEE308D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="199">
   <si>
     <t>Area</t>
   </si>
@@ -142,12 +147,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>Table Name</t>
-  </si>
-  <si>
-    <t>DB Name</t>
-  </si>
-  <si>
     <t>StoreLocation</t>
   </si>
   <si>
@@ -181,21 +180,9 @@
     <t>CurrentSalary</t>
   </si>
   <si>
-    <t>Adv Payment</t>
-  </si>
-  <si>
-    <t>Adv Reciept</t>
-  </si>
-  <si>
     <t>PaySlip</t>
   </si>
   <si>
-    <t>Tailoring Booking</t>
-  </si>
-  <si>
-    <t>Tailoring Delivery</t>
-  </si>
-  <si>
     <t>AprajitaRetailsDB</t>
   </si>
   <si>
@@ -229,21 +216,9 @@
     <t>Accounts</t>
   </si>
   <si>
-    <t>Bank Accounts</t>
-  </si>
-  <si>
     <t>SecurityInfo</t>
   </si>
   <si>
-    <t>Bank Deposit</t>
-  </si>
-  <si>
-    <t>Bank Widthwal</t>
-  </si>
-  <si>
-    <t>Cheques Log</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -262,9 +237,6 @@
     <t>MaualInvoice</t>
   </si>
   <si>
-    <t>Manual InvoiceAdjustmen</t>
-  </si>
-  <si>
     <t>CashPayments</t>
   </si>
   <si>
@@ -304,92 +276,365 @@
     <t>AttendancesImport</t>
   </si>
   <si>
-    <t xml:space="preserve">  ManualSaleItems   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ManualPaymentDetails   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ManualInvoices   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ImportInWard  ImportInWards   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ImportPurchase  ImportPurchases   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ImportSaleItemWise  ImportSaleItemWises   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ImportSaleRegister  ImportSaleRegisters   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ProductItem  ProductItems   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brand  Brands   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Category  Categories   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stock  Stocks   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ProductPurchase  ProductPurchases   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supplier  Suppliers   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PurchaseItem  PurchaseItems   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PurchaseTaxType  PurchaseTaxTypes   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SalesPerson  SalesPerson   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sales.Models.SaleInvoice  SaleInvoices   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sales.Models.SaleItem  SaleItems   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SaleTaxType  SaleTaxTypes   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SalePaymentDetail  SalePaymentDetails   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CardPaymentDetail  CardPaymentDetails   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ArvindPayment  ArvindPayments   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RegularInvoice  RegularInvoices   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RegularSaleItem  RegularSaleItems   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RegularPaymentDetail  RegularPaymentDetails   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RegularCardDetail  RegularCardDetails   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ManualCardDetails   </t>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>DBName</t>
+  </si>
+  <si>
+    <t>ManualSaleItems</t>
+  </si>
+  <si>
+    <t>BrandBrands</t>
+  </si>
+  <si>
+    <t>CardPaymentDetailCardPaymentDetails</t>
+  </si>
+  <si>
+    <t>CategoryCategories</t>
+  </si>
+  <si>
+    <t>ImportInWardImportInWards</t>
+  </si>
+  <si>
+    <t>ImportPurchaseImportPurchases</t>
+  </si>
+  <si>
+    <t>ImportSaleItemWiseImportSaleItemWises</t>
+  </si>
+  <si>
+    <t>ImportSaleRegisterImportSaleRegisters</t>
+  </si>
+  <si>
+    <t>ManualCardDetails</t>
+  </si>
+  <si>
+    <t>ManualInvoices</t>
+  </si>
+  <si>
+    <t>ManualPaymentDetails</t>
+  </si>
+  <si>
+    <t>ProductItemProductItems</t>
+  </si>
+  <si>
+    <t>ProductPurchaseProductPurchases</t>
+  </si>
+  <si>
+    <t>PurchaseItemPurchaseItems</t>
+  </si>
+  <si>
+    <t>PurchaseTaxTypePurchaseTaxTypes</t>
+  </si>
+  <si>
+    <t>RegularCardDetailRegularCardDetails</t>
+  </si>
+  <si>
+    <t>RegularInvoiceRegularInvoices</t>
+  </si>
+  <si>
+    <t>RegularPaymentDetailRegularPaymentDetails</t>
+  </si>
+  <si>
+    <t>RegularSaleItemRegularSaleItems</t>
+  </si>
+  <si>
+    <t>SalePaymentDetailSalePaymentDetails</t>
+  </si>
+  <si>
+    <t>Sales.Models.SaleInvoiceSaleInvoices</t>
+  </si>
+  <si>
+    <t>Sales.Models.SaleItemSaleItems</t>
+  </si>
+  <si>
+    <t>SalesPersonSalesPerson</t>
+  </si>
+  <si>
+    <t>SaleTaxTypeSaleTaxTypes</t>
+  </si>
+  <si>
+    <t>StockStocks</t>
+  </si>
+  <si>
+    <t>SupplierSuppliers</t>
+  </si>
+  <si>
+    <t>AdvPayment</t>
+  </si>
+  <si>
+    <t>AdvReciept</t>
+  </si>
+  <si>
+    <t>BankAccounts</t>
+  </si>
+  <si>
+    <t>BankDeposit</t>
+  </si>
+  <si>
+    <t>BankWidthwal</t>
+  </si>
+  <si>
+    <t>ChequesLog</t>
+  </si>
+  <si>
+    <t>ManualInvoiceAdjustmen</t>
+  </si>
+  <si>
+    <t>TailoringBooking</t>
+  </si>
+  <si>
+    <t>TailoringDelivery</t>
+  </si>
+  <si>
+    <t>ArvindPayment</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>SalaryPayments</t>
+  </si>
+  <si>
+    <t>StaffAdvancePayments</t>
+  </si>
+  <si>
+    <t>StaffAdvanceReceipts</t>
+  </si>
+  <si>
+    <t>TailorAttendances</t>
+  </si>
+  <si>
+    <t>TailoringSalaryPayments</t>
+  </si>
+  <si>
+    <t>TailoringStaffAdvancePayments</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>TailoringStaffAdvanceReceipts</t>
+  </si>
+  <si>
+    <t>TailoringDeliveries</t>
+  </si>
+  <si>
+    <t>BankAccountInfos</t>
+  </si>
+  <si>
+    <t>AccountSecurityInfos</t>
+  </si>
+  <si>
+    <t>CashReceipts</t>
+  </si>
+  <si>
+    <t>BankDeposits</t>
+  </si>
+  <si>
+    <t>BankWithdrawals</t>
+  </si>
+  <si>
+    <t>PaySlips</t>
+  </si>
+  <si>
+    <t>DuesLists</t>
+  </si>
+  <si>
+    <t>DueRecoverds</t>
+  </si>
+  <si>
+    <t>database_firewall_rules</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>ImportInWards</t>
+  </si>
+  <si>
+    <t>ImportPurchases</t>
+  </si>
+  <si>
+    <t>ImportSaleItemWises</t>
+  </si>
+  <si>
+    <t>ImportSaleRegisters</t>
+  </si>
+  <si>
+    <t>PurchaseTaxTypes</t>
+  </si>
+  <si>
+    <t>SaleInvoices</t>
+  </si>
+  <si>
+    <t>__EFMigrationsHistory</t>
+  </si>
+  <si>
+    <t>SalesPerson</t>
+  </si>
+  <si>
+    <t>AspNetRoles</t>
+  </si>
+  <si>
+    <t>SaleTaxTypes</t>
+  </si>
+  <si>
+    <t>AspNetUsers</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>AspNetRoleClaims</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>ProductItems</t>
+  </si>
+  <si>
+    <t>AspNetUserClaims</t>
+  </si>
+  <si>
+    <t>AspNetUserLogins</t>
+  </si>
+  <si>
+    <t>SalePaymentDetails</t>
+  </si>
+  <si>
+    <t>AspNetUserRoles</t>
+  </si>
+  <si>
+    <t>ProductPurchases</t>
+  </si>
+  <si>
+    <t>AspNetUserTokens</t>
+  </si>
+  <si>
+    <t>SaleItems</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>CashInBanks</t>
+  </si>
+  <si>
+    <t>CashInHands</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>ChequesLogs</t>
+  </si>
+  <si>
+    <t>CardPaymentDetails</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>PurchaseItems</t>
+  </si>
+  <si>
+    <t>Receipts</t>
+  </si>
+  <si>
+    <t>Salesmen</t>
+  </si>
+  <si>
+    <t>TailoringEmployees</t>
+  </si>
+  <si>
+    <t>TalioringBookings</t>
+  </si>
+  <si>
+    <t>AccountNumbers</t>
+  </si>
+  <si>
+    <t>Attendances</t>
+  </si>
+  <si>
+    <t>CurrentSalaries</t>
+  </si>
+  <si>
+    <t>AprajitaRetails DB</t>
+  </si>
+  <si>
+    <t>RegularInvoices</t>
+  </si>
+  <si>
+    <t>RegularCardDetails</t>
+  </si>
+  <si>
+    <t>RegularPaymentDetails</t>
+  </si>
+  <si>
+    <t>Bolder</t>
+  </si>
+  <si>
+    <t>RegularSaleItems</t>
+  </si>
+  <si>
+    <t>ChipSales</t>
+  </si>
+  <si>
+    <t>DailyLabor</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>FuelConsumtion</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>StaffSalary</t>
+  </si>
+  <si>
+    <t>HiredTruck</t>
+  </si>
+  <si>
+    <t>LocalDB</t>
+  </si>
+  <si>
+    <t>azureDB</t>
+  </si>
+  <si>
+    <t>Current LocalDB</t>
+  </si>
+  <si>
+    <t>Local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +649,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +674,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -442,15 +712,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -981,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652DDEE3-DE94-41D9-9317-4A0AC2FEE136}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B84"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,10 +1269,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1005,666 +1280,4313 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A3D7CD-045C-45F7-A691-FDC342DE1173}">
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A75">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD3D3A0-30DA-486E-AC9F-F29CCBE4918E}">
+  <dimension ref="A1:D91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C53">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59755191-FC38-4583-95A9-3374A239EA2D}">
+  <dimension ref="A1:J75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DB334C-8747-4D9B-A21F-C0A6A4CF9CA0}">
+  <dimension ref="A1:A90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A90">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4BA43-0FE4-4EBC-852B-21667E834001}">
+  <dimension ref="A1:G89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>113</v>
-      </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>114</v>
-      </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>115</v>
-      </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>116</v>
-      </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>117</v>
-      </c>
       <c r="B80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>93</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>118</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>56</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/AprajitaRetails/Docs/ProjectStatus.xlsx
+++ b/AprajitaRetails/Docs/ProjectStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitn\Documents\GitHub\AprajitaRetails_Core3.1\AprajitaRetails\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A1B8A1-D257-4602-B60A-74283FEE308D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713692A9-CB31-477F-9F27-194A4D534673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="208">
   <si>
     <t>Area</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Manual Bill</t>
   </si>
   <si>
-    <t>Reggular Bill</t>
-  </si>
-  <si>
-    <t>Purchasw</t>
-  </si>
-  <si>
     <t>Purchase</t>
   </si>
   <si>
@@ -628,6 +622,39 @@
   </si>
   <si>
     <t>Local</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>looks mater</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Exporter</t>
+  </si>
+  <si>
+    <t>CashBook</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>OnlieSaleRetunr</t>
+  </si>
+  <si>
+    <t>Looks Matter</t>
+  </si>
+  <si>
+    <t>Regular Bill</t>
   </si>
 </sst>
 </file>
@@ -1005,28 +1032,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1060,195 +1088,272 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
         <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1256,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652DDEE3-DE94-41D9-9317-4A0AC2FEE136}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -1269,10 +1374,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1280,553 +1385,553 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,145 +1939,145 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
         <v>118</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1995,377 +2100,377 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2391,1114 +2496,1114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
         <v>160</v>
       </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3522,909 +3627,909 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4444,452 +4549,452 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +5009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4BA43-0FE4-4EBC-852B-21667E834001}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4915,678 +5020,678 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s">
         <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/AprajitaRetails/Docs/ProjectStatus.xlsx
+++ b/AprajitaRetails/Docs/ProjectStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitn\Documents\GitHub\AprajitaRetails_Core3.1\AprajitaRetails\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713692A9-CB31-477F-9F27-194A4D534673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498A6CE-C100-46D1-B0DE-CD3F455C173C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="212">
   <si>
     <t>Area</t>
   </si>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t>Regular Bill</t>
+  </si>
+  <si>
+    <t>UserId Disabling</t>
+  </si>
+  <si>
+    <t>User id blocking</t>
+  </si>
+  <si>
+    <t>role removing</t>
+  </si>
+  <si>
+    <t>Working for Add and Delete</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,6 +1361,30 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
